--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R40321a0ac367483f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R58de5bbe395b4262"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7c4dc58f31ed47fe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R2fdaa78decbc4654"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e25fcd18b2b4e2f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4fdae6a234b24aa4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -309,6 +309,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb61906ab687a4706"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ae47b263d294407"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R7c4dc58f31ed47fe"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R2fdaa78decbc4654"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R5a8b86dd0d674132"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R4122ee73208743c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4fdae6a234b24aa4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5f1c812ab0c242b1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -309,6 +309,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7ae47b263d294407"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R03163858b94d44db"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R5a8b86dd0d674132"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R4122ee73208743c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R6cd87ef385a84ac0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R570b24c2d5fe420c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5f1c812ab0c242b1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R516c68f201614388"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -309,6 +309,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R03163858b94d44db"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdbafd63f36ea4817"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R6cd87ef385a84ac0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R570b24c2d5fe420c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb77912515a2344ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="Rc57daa977e76417c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R516c68f201614388"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72533affa1ec4e7a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -309,6 +309,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdbafd63f36ea4817"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc4d81ec528494483"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="Rb77912515a2344ac"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="Rc57daa977e76417c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R830bf510dd534013"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R1afa9ce54ede4949"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72533affa1ec4e7a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51bb662da9d54fc9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -309,6 +309,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc4d81ec528494483"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R298ee1eeaf7f4b00"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/80_ChartSeriesNamesImport_Auto.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R830bf510dd534013"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R1afa9ce54ede4949"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Data" sheetId="1" r:id="R46ac8bcbb7da4c51"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Chart" sheetId="2" r:id="R72c868e84e6547ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51bb662da9d54fc9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R488e46e2d9954b1a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -309,6 +309,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R298ee1eeaf7f4b00"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4594f825c6d742df"/>
 </x:worksheet>
 </file>